--- a/doc/灯具开关插座分类.xlsx
+++ b/doc/灯具开关插座分类.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanta/Documents/Project/AutocadPrice/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBB3EFC-1D51-D946-832E-8FE216703E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCA2D88-6114-C245-9185-7C1A14381A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="14" r:id="rId1"/>
@@ -3972,6 +3972,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3983,9 +3986,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -23519,7 +23519,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="38" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="83" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -23527,13 +23527,13 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="32" customHeight="1">
-      <c r="A4" s="82"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" customHeight="1">
-      <c r="A5" s="82"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -23552,7 +23552,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -26775,7 +26775,7 @@
   <dimension ref="A1:X183"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F183" sqref="F183"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="45" customHeight="1"/>
@@ -31766,7 +31766,7 @@
       <c r="D110" s="7">
         <v>2</v>
       </c>
-      <c r="E110" s="86" t="s">
+      <c r="E110" s="82" t="s">
         <v>1075</v>
       </c>
       <c r="F110" s="8" t="s">
@@ -31808,7 +31808,7 @@
       <c r="D111" s="7">
         <v>2</v>
       </c>
-      <c r="E111" s="86" t="s">
+      <c r="E111" s="82" t="s">
         <v>1075</v>
       </c>
       <c r="F111" s="8" t="s">
@@ -31892,7 +31892,7 @@
       <c r="D113" s="7">
         <v>2</v>
       </c>
-      <c r="E113" s="86" t="s">
+      <c r="E113" s="82" t="s">
         <v>1075</v>
       </c>
       <c r="F113" s="8" t="s">
@@ -31934,7 +31934,7 @@
       <c r="D114" s="7">
         <v>2</v>
       </c>
-      <c r="E114" s="86" t="s">
+      <c r="E114" s="82" t="s">
         <v>1075</v>
       </c>
       <c r="F114" s="8" t="s">
@@ -32354,7 +32354,7 @@
       <c r="D124" s="7">
         <v>1</v>
       </c>
-      <c r="E124" s="86" t="s">
+      <c r="E124" s="82" t="s">
         <v>1075</v>
       </c>
       <c r="F124" s="8" t="s">
@@ -32480,7 +32480,7 @@
       <c r="D127" s="7">
         <v>1</v>
       </c>
-      <c r="E127" s="86" t="s">
+      <c r="E127" s="82" t="s">
         <v>1075</v>
       </c>
       <c r="F127" s="8" t="s">
@@ -32564,7 +32564,7 @@
       <c r="D129" s="7">
         <v>1</v>
       </c>
-      <c r="E129" s="86" t="s">
+      <c r="E129" s="82" t="s">
         <v>1075</v>
       </c>
       <c r="F129" s="8" t="s">
@@ -32606,7 +32606,7 @@
       <c r="D130" s="7">
         <v>1</v>
       </c>
-      <c r="E130" s="86" t="s">
+      <c r="E130" s="82" t="s">
         <v>1075</v>
       </c>
       <c r="F130" s="8" t="s">
@@ -32978,7 +32978,7 @@
       <c r="D138" s="7">
         <v>12</v>
       </c>
-      <c r="E138" s="86" t="s">
+      <c r="E138" s="82" t="s">
         <v>1079</v>
       </c>
       <c r="F138" s="8" t="s">
@@ -33020,7 +33020,7 @@
       <c r="D139" s="7">
         <v>12</v>
       </c>
-      <c r="E139" s="86" t="s">
+      <c r="E139" s="82" t="s">
         <v>1079</v>
       </c>
       <c r="F139" s="8" t="s">
@@ -33116,7 +33116,7 @@
       <c r="D141" s="64">
         <v>9</v>
       </c>
-      <c r="E141" s="86" t="s">
+      <c r="E141" s="82" t="s">
         <v>1079</v>
       </c>
       <c r="F141" s="52" t="s">
@@ -33204,7 +33204,7 @@
       <c r="D143" s="7">
         <v>5</v>
       </c>
-      <c r="E143" s="86" t="s">
+      <c r="E143" s="82" t="s">
         <v>1079</v>
       </c>
       <c r="F143" s="8" t="s">
@@ -33294,7 +33294,7 @@
       <c r="D145" s="7">
         <v>5</v>
       </c>
-      <c r="E145" s="86" t="s">
+      <c r="E145" s="82" t="s">
         <v>1079</v>
       </c>
       <c r="F145" s="8" t="s">
@@ -33348,7 +33348,7 @@
       <c r="H146" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="I146" s="83" t="s">
+      <c r="I146" s="84" t="s">
         <v>727</v>
       </c>
       <c r="J146" s="13" t="s">
@@ -33392,7 +33392,7 @@
       <c r="H147" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="I147" s="84"/>
+      <c r="I147" s="85"/>
       <c r="J147" s="13" t="s">
         <v>730</v>
       </c>
@@ -33434,7 +33434,7 @@
       <c r="H148" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="I148" s="85"/>
+      <c r="I148" s="86"/>
       <c r="J148" s="13" t="s">
         <v>732</v>
       </c>
@@ -33476,7 +33476,7 @@
       <c r="H149" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="I149" s="83" t="s">
+      <c r="I149" s="84" t="s">
         <v>734</v>
       </c>
       <c r="J149" s="13" t="s">
@@ -33520,7 +33520,7 @@
       <c r="H150" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="I150" s="84"/>
+      <c r="I150" s="85"/>
       <c r="J150" s="13" t="s">
         <v>737</v>
       </c>
@@ -33562,7 +33562,7 @@
       <c r="H151" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="I151" s="85"/>
+      <c r="I151" s="86"/>
       <c r="J151" s="13" t="s">
         <v>739</v>
       </c>
@@ -34971,9 +34971,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E5" activeCellId="1" sqref="E4 E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -35095,7 +35095,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>812</v>
@@ -35135,7 +35135,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>816</v>
@@ -37979,6 +37979,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<autofilters xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="11"/>
+  <pixelatorList sheetStid="10"/>
+  <pixelatorList sheetStid="12"/>
+</pixelators>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<independentViews xmlns="https://web.wps.cn/et/2018/main"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="5" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0">
@@ -37997,43 +38014,26 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<independentViews xmlns="https://web.wps.cn/et/2018/main"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="11"/>
-  <pixelatorList sheetStid="10"/>
-  <pixelatorList sheetStid="12"/>
-</pixelators>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<autofilters xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5662047-3127-477A-AC3A-1D340467FB41}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02B7E37-CEC0-4786-9FA4-411A3DC59612}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5662047-3127-477A-AC3A-1D340467FB41}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>